--- a/server/files/database/quiz.xlsx
+++ b/server/files/database/quiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghunbyun/Desktop/Google 드라이브/4학년/1학기/시스템공학캡스톤디자인/10주차/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghunbyun/Desktop/workspace/nodejs/node_Learn_Python/server/files/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721377BC-1675-494F-8F20-DE8A592483BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECFF28-27A2-824F-B9D9-F04384DC0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22460" xr2:uid="{3F112F49-4655-48F8-A4B4-CF87592B7B0A}"/>
   </bookViews>
@@ -186,19 +186,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1+1'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map 함수를 사용하여 0부터 9까지의 정수로 이루어진 리스트를 생성하고 출력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>['0', '1', '2', '3', '4', '5', '6', '7', '8', '9']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,6 +229,14 @@
   </si>
   <si>
     <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +610,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -624,19 +624,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -915,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36">
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
